--- a/Capstone singapore/monthlyincomeplanningarea.xlsx
+++ b/Capstone singapore/monthlyincomeplanningarea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i320030\OneDrive - SAP SE\Documents\coursera\IBM Data Science\9. Applied Data Science\Capstone singapore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{2A027A95-DDDF-4DDD-925A-ADD877A52045}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{FCF41C65-C750-4856-A1AC-4271CAD413D8}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{2A027A95-DDDF-4DDD-925A-ADD877A52045}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{4D0C6014-1F09-427C-A8C2-4429BC358571}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E7E5ADBB-5BF1-42C2-82A0-0BEFD9F961F9}"/>
   </bookViews>
@@ -544,9 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4981E51-A04E-48F5-923C-18EDAFDE292D}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -612,49 +610,49 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>9.6999999999999993</v>
+        <v>9700</v>
       </c>
       <c r="C2">
-        <v>12.1</v>
+        <v>12100</v>
       </c>
       <c r="D2">
-        <v>7.9</v>
+        <v>7900</v>
       </c>
       <c r="E2">
-        <v>7.4</v>
+        <v>7400</v>
       </c>
       <c r="F2">
-        <v>6.8</v>
+        <v>6800</v>
       </c>
       <c r="G2">
-        <v>11.5</v>
+        <v>11500</v>
       </c>
       <c r="H2">
-        <v>9.8000000000000007</v>
+        <v>9800</v>
       </c>
       <c r="I2">
-        <v>7.9</v>
+        <v>7900</v>
       </c>
       <c r="J2">
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="L2">
-        <v>3.1</v>
+        <v>3100</v>
       </c>
       <c r="M2">
-        <v>2.2000000000000002</v>
+        <v>2200</v>
       </c>
       <c r="N2">
-        <v>2.6</v>
+        <v>2600</v>
       </c>
       <c r="O2">
-        <v>1.7</v>
+        <v>1700</v>
       </c>
       <c r="P2">
-        <v>8.6</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -662,49 +660,49 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>12.2</v>
+        <v>12200</v>
       </c>
       <c r="C3">
-        <v>13.6</v>
+        <v>13600</v>
       </c>
       <c r="D3">
-        <v>12.1</v>
+        <v>12100</v>
       </c>
       <c r="E3">
-        <v>9.6999999999999993</v>
+        <v>9700</v>
       </c>
       <c r="F3">
-        <v>9.6</v>
+        <v>9600</v>
       </c>
       <c r="G3">
-        <v>17.2</v>
+        <v>17200</v>
       </c>
       <c r="H3">
-        <v>13.4</v>
+        <v>13400</v>
       </c>
       <c r="I3">
-        <v>12.2</v>
+        <v>12200</v>
       </c>
       <c r="J3">
-        <v>9.1999999999999993</v>
+        <v>9200</v>
       </c>
       <c r="K3">
-        <v>5.4</v>
+        <v>5400</v>
       </c>
       <c r="L3">
-        <v>5.0999999999999996</v>
+        <v>5100</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="N3">
-        <v>4.5</v>
+        <v>4500</v>
       </c>
       <c r="O3">
-        <v>2.7</v>
+        <v>2700</v>
       </c>
       <c r="P3">
-        <v>19.399999999999999</v>
+        <v>19400</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -712,49 +710,49 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
       <c r="C4">
-        <v>3.7</v>
+        <v>3700</v>
       </c>
       <c r="D4">
-        <v>2.2000000000000002</v>
+        <v>2200</v>
       </c>
       <c r="E4">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
       <c r="F4">
-        <v>2.4</v>
+        <v>2400</v>
       </c>
       <c r="G4">
-        <v>4.5999999999999996</v>
+        <v>4600</v>
       </c>
       <c r="H4">
-        <v>4.7</v>
+        <v>4700</v>
       </c>
       <c r="I4">
-        <v>3.8</v>
+        <v>3800</v>
       </c>
       <c r="J4">
-        <v>2.7</v>
+        <v>2700</v>
       </c>
       <c r="K4">
-        <v>2.8</v>
+        <v>2800</v>
       </c>
       <c r="L4">
-        <v>3.1</v>
+        <v>3100</v>
       </c>
       <c r="M4">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
       <c r="N4">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
       <c r="O4">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="P4">
-        <v>7.6</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -762,49 +760,49 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>6.1</v>
+        <v>6100</v>
       </c>
       <c r="C5">
-        <v>6.5</v>
+        <v>6500</v>
       </c>
       <c r="D5">
-        <v>5.2</v>
+        <v>5200</v>
       </c>
       <c r="E5">
-        <v>5.8</v>
+        <v>5800</v>
       </c>
       <c r="F5">
-        <v>4.9000000000000004</v>
+        <v>4900</v>
       </c>
       <c r="G5">
-        <v>8.6</v>
+        <v>8600</v>
       </c>
       <c r="H5">
-        <v>7.6</v>
+        <v>7600</v>
       </c>
       <c r="I5">
-        <v>6.7</v>
+        <v>6700</v>
       </c>
       <c r="J5">
-        <v>4.4000000000000004</v>
+        <v>4400</v>
       </c>
       <c r="K5">
-        <v>3.5</v>
+        <v>3500</v>
       </c>
       <c r="L5">
-        <v>2.6</v>
+        <v>2600</v>
       </c>
       <c r="M5">
-        <v>2.4</v>
+        <v>2400</v>
       </c>
       <c r="N5">
-        <v>2.5</v>
+        <v>2500</v>
       </c>
       <c r="O5">
-        <v>1.5</v>
+        <v>1500</v>
       </c>
       <c r="P5">
-        <v>7.4</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -812,49 +810,49 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>8.5</v>
+        <v>8500</v>
       </c>
       <c r="C6">
-        <v>9.1999999999999993</v>
+        <v>9200</v>
       </c>
       <c r="D6">
-        <v>6.9</v>
+        <v>6900</v>
       </c>
       <c r="E6">
-        <v>6.6</v>
+        <v>6600</v>
       </c>
       <c r="F6">
-        <v>4.4000000000000004</v>
+        <v>4400</v>
       </c>
       <c r="G6">
-        <v>8.3000000000000007</v>
+        <v>8300</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>7000</v>
       </c>
       <c r="I6">
-        <v>5.5</v>
+        <v>5500</v>
       </c>
       <c r="J6">
-        <v>4.7</v>
+        <v>4700</v>
       </c>
       <c r="K6">
-        <v>4.2</v>
+        <v>4200</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="M6">
-        <v>2.1</v>
+        <v>2100</v>
       </c>
       <c r="N6">
-        <v>2.2000000000000002</v>
+        <v>2200</v>
       </c>
       <c r="O6">
-        <v>1.5</v>
+        <v>1500</v>
       </c>
       <c r="P6">
-        <v>8</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -862,49 +860,49 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>5.0999999999999996</v>
+        <v>5100</v>
       </c>
       <c r="C7">
-        <v>6.5</v>
+        <v>6500</v>
       </c>
       <c r="D7">
-        <v>5.2</v>
+        <v>5200</v>
       </c>
       <c r="E7">
-        <v>6.3</v>
+        <v>6300</v>
       </c>
       <c r="F7">
-        <v>6.5</v>
+        <v>6500</v>
       </c>
       <c r="G7">
-        <v>10.5</v>
+        <v>10500</v>
       </c>
       <c r="H7">
-        <v>8.3000000000000007</v>
+        <v>8300</v>
       </c>
       <c r="I7">
-        <v>7.2</v>
+        <v>7200</v>
       </c>
       <c r="J7">
-        <v>5.5</v>
+        <v>5500</v>
       </c>
       <c r="K7">
-        <v>3.8</v>
+        <v>3800</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>3400</v>
       </c>
       <c r="M7">
-        <v>2.6</v>
+        <v>2600</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P7">
-        <v>6.1</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -912,49 +910,49 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>2.1</v>
+        <v>2100</v>
       </c>
       <c r="C8">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="D8">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="E8">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="F8">
-        <v>0.7</v>
+        <v>700</v>
       </c>
       <c r="G8">
-        <v>2.1</v>
+        <v>2100</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="I8">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
       <c r="J8">
-        <v>1.3</v>
+        <v>1300</v>
       </c>
       <c r="K8">
-        <v>1.9</v>
+        <v>1900</v>
       </c>
       <c r="L8">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="M8">
-        <v>1.5</v>
+        <v>1500</v>
       </c>
       <c r="N8">
-        <v>2.2000000000000002</v>
+        <v>2200</v>
       </c>
       <c r="O8">
-        <v>1.1000000000000001</v>
+        <v>1100</v>
       </c>
       <c r="P8">
-        <v>13.7</v>
+        <v>13700</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -962,49 +960,49 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>7.3</v>
+        <v>7300</v>
       </c>
       <c r="C9">
-        <v>7.8</v>
+        <v>7800</v>
       </c>
       <c r="D9">
-        <v>6.3</v>
+        <v>6300</v>
       </c>
       <c r="E9">
-        <v>7.5</v>
+        <v>7500</v>
       </c>
       <c r="F9">
-        <v>6.5</v>
+        <v>6500</v>
       </c>
       <c r="G9">
-        <v>14.5</v>
+        <v>14500</v>
       </c>
       <c r="H9">
-        <v>10.6</v>
+        <v>10600</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>8000</v>
       </c>
       <c r="J9">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
       <c r="K9">
-        <v>5.4</v>
+        <v>5400</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="M9">
-        <v>2.6</v>
+        <v>2600</v>
       </c>
       <c r="N9">
-        <v>2.2000000000000002</v>
+        <v>2200</v>
       </c>
       <c r="O9">
-        <v>1.3</v>
+        <v>1300</v>
       </c>
       <c r="P9">
-        <v>6.5</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1012,49 +1010,49 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>3.8</v>
+        <v>3800</v>
       </c>
       <c r="C10">
-        <v>3.6</v>
+        <v>3600</v>
       </c>
       <c r="D10">
-        <v>2.4</v>
+        <v>2400</v>
       </c>
       <c r="E10">
-        <v>2.2999999999999998</v>
+        <v>2300</v>
       </c>
       <c r="F10">
-        <v>2.6</v>
+        <v>2600</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="H10">
-        <v>4.3</v>
+        <v>4300</v>
       </c>
       <c r="I10">
-        <v>3.6</v>
+        <v>3600</v>
       </c>
       <c r="J10">
-        <v>3.1</v>
+        <v>3100</v>
       </c>
       <c r="K10">
-        <v>3.2</v>
+        <v>3200</v>
       </c>
       <c r="L10">
-        <v>1.7</v>
+        <v>1700</v>
       </c>
       <c r="M10">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
       <c r="N10">
-        <v>1.7</v>
+        <v>1700</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P10">
-        <v>6.1</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1062,49 +1060,49 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>6.5</v>
+        <v>6500</v>
       </c>
       <c r="C11">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
       <c r="D11">
-        <v>4.4000000000000004</v>
+        <v>4400</v>
       </c>
       <c r="E11">
-        <v>5.3</v>
+        <v>5300</v>
       </c>
       <c r="F11">
-        <v>3.5</v>
+        <v>3500</v>
       </c>
       <c r="G11">
-        <v>7.8</v>
+        <v>7800</v>
       </c>
       <c r="H11">
-        <v>5.7</v>
+        <v>5700</v>
       </c>
       <c r="I11">
-        <v>4.4000000000000004</v>
+        <v>4400</v>
       </c>
       <c r="J11">
-        <v>3.5</v>
+        <v>3500</v>
       </c>
       <c r="K11">
-        <v>2.4</v>
+        <v>2400</v>
       </c>
       <c r="L11">
-        <v>2.4</v>
+        <v>2400</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="N11">
-        <v>1.5</v>
+        <v>1500</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P11">
-        <v>4.9000000000000004</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1112,49 +1110,49 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>10.1</v>
+        <v>10100</v>
       </c>
       <c r="C12">
-        <v>10.8</v>
+        <v>10800</v>
       </c>
       <c r="D12">
-        <v>8.1999999999999993</v>
+        <v>8200</v>
       </c>
       <c r="E12">
-        <v>10.4</v>
+        <v>10400</v>
       </c>
       <c r="F12">
-        <v>7.7</v>
+        <v>7700</v>
       </c>
       <c r="G12">
-        <v>17</v>
+        <v>17000</v>
       </c>
       <c r="H12">
-        <v>11.8</v>
+        <v>11800</v>
       </c>
       <c r="I12">
-        <v>11.1</v>
+        <v>11100</v>
       </c>
       <c r="J12">
-        <v>7.4</v>
+        <v>7400</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="L12">
-        <v>4.0999999999999996</v>
+        <v>4100</v>
       </c>
       <c r="M12">
-        <v>2.8</v>
+        <v>2800</v>
       </c>
       <c r="N12">
-        <v>3.2</v>
+        <v>3200</v>
       </c>
       <c r="O12">
-        <v>1.9</v>
+        <v>1900</v>
       </c>
       <c r="P12">
-        <v>9.1999999999999993</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1162,49 +1160,49 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>4.3</v>
+        <v>4300</v>
       </c>
       <c r="C13">
-        <v>4.0999999999999996</v>
+        <v>4100</v>
       </c>
       <c r="D13">
-        <v>3.3</v>
+        <v>3300</v>
       </c>
       <c r="E13">
-        <v>3.6</v>
+        <v>3600</v>
       </c>
       <c r="F13">
-        <v>3.8</v>
+        <v>3800</v>
       </c>
       <c r="G13">
-        <v>5.2</v>
+        <v>5200</v>
       </c>
       <c r="H13">
-        <v>5.4</v>
+        <v>5400</v>
       </c>
       <c r="I13">
-        <v>3.6</v>
+        <v>3600</v>
       </c>
       <c r="J13">
-        <v>2.8</v>
+        <v>2800</v>
       </c>
       <c r="K13">
-        <v>2.2000000000000002</v>
+        <v>2200</v>
       </c>
       <c r="L13">
-        <v>1.7</v>
+        <v>1700</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N13">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="O13">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="P13">
-        <v>3.4</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1212,49 +1210,49 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>13.4</v>
+        <v>13400</v>
       </c>
       <c r="C14">
-        <v>13.8</v>
+        <v>13800</v>
       </c>
       <c r="D14">
-        <v>11.6</v>
+        <v>11600</v>
       </c>
       <c r="E14">
-        <v>12.3</v>
+        <v>12300</v>
       </c>
       <c r="F14">
-        <v>11.1</v>
+        <v>11100</v>
       </c>
       <c r="G14">
-        <v>22.8</v>
+        <v>22800</v>
       </c>
       <c r="H14">
-        <v>19.3</v>
+        <v>19300</v>
       </c>
       <c r="I14">
-        <v>13.6</v>
+        <v>13600</v>
       </c>
       <c r="J14">
-        <v>8.6999999999999993</v>
+        <v>8700</v>
       </c>
       <c r="K14">
-        <v>9.6</v>
+        <v>9600</v>
       </c>
       <c r="L14">
-        <v>5.8</v>
+        <v>5800</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="O14">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
       <c r="P14">
-        <v>7.7</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1262,49 +1260,49 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>4.3</v>
+        <v>4300</v>
       </c>
       <c r="C15">
-        <v>5.8</v>
+        <v>5800</v>
       </c>
       <c r="D15">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
       <c r="E15">
-        <v>4.8</v>
+        <v>4800</v>
       </c>
       <c r="F15">
-        <v>3.1</v>
+        <v>3100</v>
       </c>
       <c r="G15">
-        <v>7.1</v>
+        <v>7100</v>
       </c>
       <c r="H15">
-        <v>4.8</v>
+        <v>4800</v>
       </c>
       <c r="I15">
-        <v>3.8</v>
+        <v>3800</v>
       </c>
       <c r="J15">
-        <v>3.5</v>
+        <v>3500</v>
       </c>
       <c r="K15">
-        <v>2.1</v>
+        <v>2100</v>
       </c>
       <c r="L15">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="M15">
-        <v>1.7</v>
+        <v>1700</v>
       </c>
       <c r="N15">
-        <v>1.3</v>
+        <v>1300</v>
       </c>
       <c r="O15">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="P15">
-        <v>6.6</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1312,49 +1310,49 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="C16">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="D16">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="E16">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G16">
-        <v>2.2999999999999998</v>
+        <v>2300</v>
       </c>
       <c r="H16">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
       <c r="I16">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="J16">
-        <v>1.1000000000000001</v>
+        <v>1100</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M16">
-        <v>0.7</v>
+        <v>700</v>
       </c>
       <c r="N16">
-        <v>0.7</v>
+        <v>700</v>
       </c>
       <c r="O16">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="P16">
-        <v>4.8</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -1362,49 +1360,49 @@
         <v>31</v>
       </c>
       <c r="B17">
-        <v>1.5</v>
+        <v>1500</v>
       </c>
       <c r="C17">
-        <v>2.1</v>
+        <v>2100</v>
       </c>
       <c r="D17">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="E17">
-        <v>1.1000000000000001</v>
+        <v>1100</v>
       </c>
       <c r="F17">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="G17">
-        <v>2.2000000000000002</v>
+        <v>2200</v>
       </c>
       <c r="H17">
-        <v>1.9</v>
+        <v>1900</v>
       </c>
       <c r="I17">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="J17">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="K17">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="L17">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="M17">
-        <v>0.7</v>
+        <v>700</v>
       </c>
       <c r="N17">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="O17">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="P17">
-        <v>5.8</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -1412,49 +1410,49 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="C18">
-        <v>1.9</v>
+        <v>1900</v>
       </c>
       <c r="D18">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="E18">
-        <v>0.7</v>
+        <v>700</v>
       </c>
       <c r="F18">
-        <v>0.7</v>
+        <v>700</v>
       </c>
       <c r="G18">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="H18">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="I18">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="J18">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="K18">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="L18">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="M18">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="N18">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="O18">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="P18">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -1462,49 +1460,49 @@
         <v>33</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>7000</v>
       </c>
       <c r="C19">
-        <v>4.4000000000000004</v>
+        <v>4400</v>
       </c>
       <c r="D19">
-        <v>4.4000000000000004</v>
+        <v>4400</v>
       </c>
       <c r="E19">
-        <v>5.7</v>
+        <v>5700</v>
       </c>
       <c r="F19">
-        <v>4.3</v>
+        <v>4300</v>
       </c>
       <c r="G19">
-        <v>9.9</v>
+        <v>9900</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>9000</v>
       </c>
       <c r="I19">
-        <v>6.6</v>
+        <v>6600</v>
       </c>
       <c r="J19">
-        <v>5.5</v>
+        <v>5500</v>
       </c>
       <c r="K19">
-        <v>3.4</v>
+        <v>3400</v>
       </c>
       <c r="L19">
-        <v>3.3</v>
+        <v>3300</v>
       </c>
       <c r="M19">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
       <c r="N19">
-        <v>2.1</v>
+        <v>2100</v>
       </c>
       <c r="O19">
-        <v>1.5</v>
+        <v>1500</v>
       </c>
       <c r="P19">
-        <v>7.9</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -1512,49 +1510,49 @@
         <v>34</v>
       </c>
       <c r="B20">
-        <v>3.6</v>
+        <v>3600</v>
       </c>
       <c r="C20">
-        <v>3.2</v>
+        <v>3200</v>
       </c>
       <c r="D20">
-        <v>2.8</v>
+        <v>2800</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F20">
-        <v>3.5</v>
+        <v>3500</v>
       </c>
       <c r="G20">
-        <v>7.1</v>
+        <v>7100</v>
       </c>
       <c r="H20">
-        <v>6.2</v>
+        <v>6200</v>
       </c>
       <c r="I20">
-        <v>6.1</v>
+        <v>6100</v>
       </c>
       <c r="J20">
-        <v>5.5</v>
+        <v>5500</v>
       </c>
       <c r="K20">
-        <v>4.9000000000000004</v>
+        <v>4900</v>
       </c>
       <c r="L20">
-        <v>3.8</v>
+        <v>3800</v>
       </c>
       <c r="M20">
-        <v>2.8</v>
+        <v>2800</v>
       </c>
       <c r="N20">
-        <v>1.7</v>
+        <v>1700</v>
       </c>
       <c r="O20">
-        <v>1.5</v>
+        <v>1500</v>
       </c>
       <c r="P20">
-        <v>4.5999999999999996</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -1562,49 +1560,49 @@
         <v>35</v>
       </c>
       <c r="B21">
-        <v>4.0999999999999996</v>
+        <v>4100</v>
       </c>
       <c r="C21">
-        <v>4.2</v>
+        <v>4200</v>
       </c>
       <c r="D21">
-        <v>3.5</v>
+        <v>3500</v>
       </c>
       <c r="E21">
-        <v>3.2</v>
+        <v>3200</v>
       </c>
       <c r="F21">
-        <v>3.1</v>
+        <v>3100</v>
       </c>
       <c r="G21">
-        <v>4.8</v>
+        <v>4800</v>
       </c>
       <c r="H21">
-        <v>4.8</v>
+        <v>4800</v>
       </c>
       <c r="I21">
-        <v>3.8</v>
+        <v>3800</v>
       </c>
       <c r="J21">
-        <v>3.2</v>
+        <v>3200</v>
       </c>
       <c r="K21">
-        <v>2.2999999999999998</v>
+        <v>2300</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="M21">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="N21">
-        <v>1.5</v>
+        <v>1500</v>
       </c>
       <c r="O21">
-        <v>1.1000000000000001</v>
+        <v>1100</v>
       </c>
       <c r="P21">
-        <v>5.8</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -1612,49 +1610,49 @@
         <v>36</v>
       </c>
       <c r="B22">
-        <v>3.2</v>
+        <v>3200</v>
       </c>
       <c r="C22">
-        <v>3.6</v>
+        <v>3600</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="E22">
-        <v>4.0999999999999996</v>
+        <v>4100</v>
       </c>
       <c r="F22">
-        <v>2.6</v>
+        <v>2600</v>
       </c>
       <c r="G22">
-        <v>6.6</v>
+        <v>6600</v>
       </c>
       <c r="H22">
-        <v>4.4000000000000004</v>
+        <v>4400</v>
       </c>
       <c r="I22">
-        <v>4.5</v>
+        <v>4500</v>
       </c>
       <c r="J22">
-        <v>3.7</v>
+        <v>3700</v>
       </c>
       <c r="K22">
-        <v>3.2</v>
+        <v>3200</v>
       </c>
       <c r="L22">
-        <v>2.2000000000000002</v>
+        <v>2200</v>
       </c>
       <c r="M22">
-        <v>1.7</v>
+        <v>1700</v>
       </c>
       <c r="N22">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="O22">
-        <v>0.7</v>
+        <v>700</v>
       </c>
       <c r="P22">
-        <v>2.2999999999999998</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -1662,49 +1660,49 @@
         <v>37</v>
       </c>
       <c r="B23">
-        <v>7.5</v>
+        <v>7500</v>
       </c>
       <c r="C23">
-        <v>7.9</v>
+        <v>7900</v>
       </c>
       <c r="D23">
-        <v>7.7</v>
+        <v>7700</v>
       </c>
       <c r="E23">
-        <v>9.9</v>
+        <v>9900</v>
       </c>
       <c r="F23">
-        <v>8</v>
+        <v>8000</v>
       </c>
       <c r="G23">
-        <v>16.399999999999999</v>
+        <v>16400</v>
       </c>
       <c r="H23">
-        <v>14.2</v>
+        <v>14200</v>
       </c>
       <c r="I23">
-        <v>11.1</v>
+        <v>11100</v>
       </c>
       <c r="J23">
-        <v>8.8000000000000007</v>
+        <v>8800</v>
       </c>
       <c r="K23">
-        <v>7.4</v>
+        <v>7400</v>
       </c>
       <c r="L23">
-        <v>6.2</v>
+        <v>6200</v>
       </c>
       <c r="M23">
-        <v>3.7</v>
+        <v>3700</v>
       </c>
       <c r="N23">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="O23">
-        <v>2.2999999999999998</v>
+        <v>2300</v>
       </c>
       <c r="P23">
-        <v>9.3000000000000007</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -1712,49 +1710,49 @@
         <v>38</v>
       </c>
       <c r="B24">
-        <v>4.5999999999999996</v>
+        <v>4600</v>
       </c>
       <c r="C24">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
       <c r="D24">
-        <v>3.9</v>
+        <v>3900</v>
       </c>
       <c r="E24">
-        <v>4.4000000000000004</v>
+        <v>4400</v>
       </c>
       <c r="F24">
-        <v>3.2</v>
+        <v>3200</v>
       </c>
       <c r="G24">
-        <v>8.6999999999999993</v>
+        <v>8700</v>
       </c>
       <c r="H24">
-        <v>6.5</v>
+        <v>6500</v>
       </c>
       <c r="I24">
-        <v>6.1</v>
+        <v>6100</v>
       </c>
       <c r="J24">
-        <v>3.8</v>
+        <v>3800</v>
       </c>
       <c r="K24">
-        <v>2.8</v>
+        <v>2800</v>
       </c>
       <c r="L24">
-        <v>2.2000000000000002</v>
+        <v>2200</v>
       </c>
       <c r="M24">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
       <c r="N24">
-        <v>1.9</v>
+        <v>1900</v>
       </c>
       <c r="O24">
-        <v>1.7</v>
+        <v>1700</v>
       </c>
       <c r="P24">
-        <v>10.7</v>
+        <v>10700</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -1762,49 +1760,49 @@
         <v>39</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>13000</v>
       </c>
       <c r="C25">
-        <v>12.7</v>
+        <v>12700</v>
       </c>
       <c r="D25">
-        <v>10.5</v>
+        <v>10500</v>
       </c>
       <c r="E25">
-        <v>11.7</v>
+        <v>11700</v>
       </c>
       <c r="F25">
-        <v>10.3</v>
+        <v>10300</v>
       </c>
       <c r="G25">
-        <v>20.6</v>
+        <v>20600</v>
       </c>
       <c r="H25">
-        <v>16.899999999999999</v>
+        <v>16900</v>
       </c>
       <c r="I25">
-        <v>12.8</v>
+        <v>12800</v>
       </c>
       <c r="J25">
-        <v>10.1</v>
+        <v>10100</v>
       </c>
       <c r="K25">
-        <v>7.1</v>
+        <v>7100</v>
       </c>
       <c r="L25">
-        <v>5.6</v>
+        <v>5600</v>
       </c>
       <c r="M25">
-        <v>3.4</v>
+        <v>3400</v>
       </c>
       <c r="N25">
-        <v>3.7</v>
+        <v>3700</v>
       </c>
       <c r="O25">
-        <v>2.6</v>
+        <v>2600</v>
       </c>
       <c r="P25">
-        <v>11.6</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -1812,49 +1810,49 @@
         <v>40</v>
       </c>
       <c r="B26">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="C26">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="F26">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="G26">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="H26">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="I26">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="J26">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="L26">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="M26">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="N26">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="O26">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="P26">
-        <v>4.8</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -1862,49 +1860,49 @@
         <v>41</v>
       </c>
       <c r="B27">
-        <v>6.3</v>
+        <v>6300</v>
       </c>
       <c r="C27">
-        <v>6.3</v>
+        <v>6300</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="E27">
-        <v>5.2</v>
+        <v>5200</v>
       </c>
       <c r="F27">
-        <v>4.9000000000000004</v>
+        <v>4900</v>
       </c>
       <c r="G27">
-        <v>8.4</v>
+        <v>8400</v>
       </c>
       <c r="H27">
-        <v>7.1</v>
+        <v>7100</v>
       </c>
       <c r="I27">
-        <v>5.4</v>
+        <v>5400</v>
       </c>
       <c r="J27">
-        <v>3.6</v>
+        <v>3600</v>
       </c>
       <c r="K27">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
       <c r="L27">
-        <v>2.5</v>
+        <v>2500</v>
       </c>
       <c r="M27">
-        <v>1.9</v>
+        <v>1900</v>
       </c>
       <c r="N27">
-        <v>1.9</v>
+        <v>1900</v>
       </c>
       <c r="O27">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="P27">
-        <v>6.1</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -1912,49 +1910,49 @@
         <v>42</v>
       </c>
       <c r="B28">
-        <v>10.9</v>
+        <v>10900</v>
       </c>
       <c r="C28">
-        <v>11.9</v>
+        <v>11900</v>
       </c>
       <c r="D28">
-        <v>12.3</v>
+        <v>12300</v>
       </c>
       <c r="E28">
-        <v>13</v>
+        <v>13000</v>
       </c>
       <c r="F28">
-        <v>11</v>
+        <v>11000</v>
       </c>
       <c r="G28">
-        <v>18.2</v>
+        <v>18200</v>
       </c>
       <c r="H28">
-        <v>14.9</v>
+        <v>14900</v>
       </c>
       <c r="I28">
-        <v>11.4</v>
+        <v>11400</v>
       </c>
       <c r="J28">
-        <v>9.3000000000000007</v>
+        <v>9300</v>
       </c>
       <c r="K28">
-        <v>6.1</v>
+        <v>6100</v>
       </c>
       <c r="L28">
-        <v>4.9000000000000004</v>
+        <v>4900</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="N28">
-        <v>2.2000000000000002</v>
+        <v>2200</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P28">
-        <v>4.8</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -1962,49 +1960,49 @@
         <v>43</v>
       </c>
       <c r="B29">
-        <v>10.3</v>
+        <v>10300</v>
       </c>
       <c r="C29">
-        <v>13.1</v>
+        <v>13100</v>
       </c>
       <c r="D29">
-        <v>10.3</v>
+        <v>10300</v>
       </c>
       <c r="E29">
-        <v>10.199999999999999</v>
+        <v>10200</v>
       </c>
       <c r="F29">
-        <v>9</v>
+        <v>9000</v>
       </c>
       <c r="G29">
-        <v>18</v>
+        <v>18000</v>
       </c>
       <c r="H29">
-        <v>12.3</v>
+        <v>12300</v>
       </c>
       <c r="I29">
-        <v>10.3</v>
+        <v>10300</v>
       </c>
       <c r="J29">
-        <v>5.8</v>
+        <v>5800</v>
       </c>
       <c r="K29">
-        <v>4.5999999999999996</v>
+        <v>4600</v>
       </c>
       <c r="L29">
-        <v>4.5999999999999996</v>
+        <v>4600</v>
       </c>
       <c r="M29">
-        <v>2.8</v>
+        <v>2800</v>
       </c>
       <c r="N29">
-        <v>2.2000000000000002</v>
+        <v>2200</v>
       </c>
       <c r="O29">
-        <v>1.3</v>
+        <v>1300</v>
       </c>
       <c r="P29">
-        <v>4.5</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -2012,49 +2010,49 @@
         <v>44</v>
       </c>
       <c r="B30">
-        <v>1.1000000000000001</v>
+        <v>1100</v>
       </c>
       <c r="C30">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E30">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="F30">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="G30">
-        <v>2.2000000000000002</v>
+        <v>2200</v>
       </c>
       <c r="H30">
-        <v>1.5</v>
+        <v>1500</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="J30">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="K30">
-        <v>0.6</v>
+        <v>600</v>
       </c>
       <c r="L30">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="M30">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="N30">
-        <v>0.7</v>
+        <v>700</v>
       </c>
       <c r="O30">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="P30">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
     </row>
   </sheetData>
@@ -2334,13 +2332,13 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DE66580-5D37-4DF2-9C64-10547717B662}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="025efd7d-4e1d-49ec-b269-b81537660960"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="386f4720-9db4-4950-8ffd-cd1ef4b846d5"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
